--- a/2025-26/MN5813/Week04/assets/data/data.xlsx
+++ b/2025-26/MN5813/Week04/assets/data/data.xlsx
@@ -645,7 +645,7 @@
         <v>-0.4634176928124622</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.918771215299042</v>
+        <v>-1.918771215299041</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>1.003532897892024</v>
       </c>
       <c r="C69" t="n">
-        <v>1.896792982653947</v>
+        <v>1.896792982653948</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>

--- a/2025-26/MN5813/Week04/assets/data/data.xlsx
+++ b/2025-26/MN5813/Week04/assets/data/data.xlsx
@@ -645,7 +645,7 @@
         <v>-0.4634176928124622</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.918771215299041</v>
+        <v>-1.918771215299042</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>1.003532897892024</v>
       </c>
       <c r="C69" t="n">
-        <v>1.896792982653948</v>
+        <v>1.896792982653947</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
